--- a/db_test_cases.xlsx
+++ b/db_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -119,6 +119,39 @@
   </si>
   <si>
     <t xml:space="preserve">row with the next available id is created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NULL values can be successfully added as values for the name, description, and quantity columns of the products table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a SQL query with no id and NULL values for the other columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity = ‘NULL’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row with the next available id is created. Name, description and quantity values are None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max integer value can be added as a valid id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a SQL query with max integer value as id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id = 9223372036854775807, name = ‘тестові’; description = ‘дані’; quantity = 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">row is successfully created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using integer value greater than the max integer value for the id raises an IntegrityError error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send a SQL query with the id value greater than max integer value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id = 9223372036854775808, name = ‘тестові’; description = ‘дані’; quantity = 10</t>
   </si>
 </sst>
 </file>
@@ -203,16 +236,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,167 +379,203 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B12:B13"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="28.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
